--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2152362.247575882</v>
+        <v>2150110.167864675</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738231</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>22.05816311387023</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>90.52240030468822</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289038</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.1041351155684</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157803</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673355</v>
       </c>
       <c r="D7" t="n">
-        <v>135.9114955019772</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.1660492255824</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.85289400365755</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>40.53421095546828</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>222.8161206669571</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>35.03063761899546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8225411926555</v>
+        <v>21.90286287505467</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>250.9728823639219</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>40.15381658332875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892489</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>144.7250005831125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763517</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.81332727248864</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.35059460820021</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>159.4039304881677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>20.3842717819797</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392149</v>
+        <v>1329.547110979149</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>552.8079389392149</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>545.8624381900114</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>130.7899880350079</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015.34761180106</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>846.4114288731531</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>696.2947894608174</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>548.3816958784242</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>401.4917483805139</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="X4" t="n">
-        <v>1417.78865577483</v>
+        <v>652.2346852641132</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.9960766313</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.755181644084</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>888.7926647036722</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.4557027387031</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="C7" t="n">
-        <v>812.5195198107962</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.104167568943</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.104167568943</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717.3698800184446</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>899.0183448486844</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>899.0183448486844</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,58 +5027,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400703</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277345</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277345</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>216.8470138298242</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>216.8470138298242</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2149.810879820877</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433919</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5771,19 +5771,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O21" t="n">
-        <v>2149.810879820877</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327652</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>763.7541388327652</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>615.8410452503721</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>468.9510977524617</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921476</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1501.923595618545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1212.506425581584</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192292</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111686</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,16 +6546,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015257</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138363</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,19 +6783,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032921</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909563</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>334.7259677085632</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>187.8360202106528</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3403484614369</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.40416553353</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>664.2875261211942</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3744325388011</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4844850408907</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614369</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614369</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>403.0086152208354</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>256.118667722925</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-8.832474487678859e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-6.381061343653284e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>99.76050189075558</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557218739</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.70159709961331</v>
+        <v>143.6212754172142</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16476095990609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948071</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.9838267404992</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>80.98465480592463</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944596</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>153.7108110197802</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1735436840686</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.18072286392712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>145.1398665102892</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>851936.8615161001</v>
+        <v>851936.8615161</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="I2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="D4" t="n">
         <v>90354.0670231448</v>
@@ -26427,16 +26427,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179345</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26445,19 +26445,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931777.4701605252</v>
+        <v>-931777.4701605255</v>
       </c>
       <c r="C6" t="n">
-        <v>396967.2755670674</v>
+        <v>396967.2755670676</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670676</v>
+        <v>396967.2755670677</v>
       </c>
       <c r="E6" t="n">
-        <v>147479.2608921985</v>
+        <v>147444.5229667626</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.7226995536</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741182</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="I6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="J6" t="n">
-        <v>255360.520302276</v>
+        <v>255325.7823768404</v>
       </c>
       <c r="K6" t="n">
-        <v>472891.7226995536</v>
+        <v>472856.9847741186</v>
       </c>
       <c r="L6" t="n">
-        <v>472891.7226995537</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="M6" t="n">
-        <v>387836.6947640419</v>
+        <v>387801.9568386063</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="P6" t="n">
-        <v>472891.7226995538</v>
+        <v>472856.9847741177</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468598</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>272.5496012734502</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>75.50340795434001</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.32475882319099</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.62970654791218</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659777</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718943</v>
       </c>
       <c r="D7" t="n">
-        <v>12.7039775162352</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5650514528866779</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>129.3939270949703</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.809644481579793e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>268.6704608606959</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486389</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>541.2980521010957</v>
+        <v>448.9178583921309</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2370040367367</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067201</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33266,19 +33266,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>300.5543663814922</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6960534463657</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>311.9917356041944</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>407.3236446867654</v>
+        <v>314.9434509778006</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K24" t="n">
-        <v>71.39556506237767</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236314206</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899059</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>161.999986601618</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998968</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>432.0572943778175</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
